--- a/results/mp/logistic/corona/confidence/42/0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,27 @@
     <t>kill</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -79,148 +76,154 @@
     <t>panic</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
+    <t>of</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>growth</t>
   </si>
   <si>
     <t>share</t>
@@ -232,28 +235,28 @@
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -730,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7636986301369864</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7431506849315068</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -880,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6086956521739131</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4705882352941176</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K11">
-        <v>0.8381201044386423</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L11">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M11">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4324324324324325</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>0.8207547169811321</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L12">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1183,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C13">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K13">
-        <v>0.8103448275862069</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1233,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3725490196078431</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>32</v>
+        <v>348</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.8125</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3294573643410852</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C15">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K15">
-        <v>0.8048780487804879</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L15">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3220338983050847</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C16">
         <v>19</v>
@@ -1348,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.78125</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2147651006711409</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>0.7708333333333334</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>46</v>
@@ -1530,37 +1533,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.05158730158730158</v>
+        <v>0.005897219882055603</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>239</v>
+        <v>2360</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>0.7575757575757576</v>
+        <v>0.7625</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,25 +1583,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004511762810183693</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="F21">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>48</v>
@@ -1607,10 +1610,10 @@
         <v>0.75</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,37 +1633,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003708854891052387</v>
+        <v>0.004070556309362279</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
       <c r="F22">
-        <v>0.53</v>
+        <v>0.78</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>4298</v>
+        <v>5138</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,37 +1683,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.003105590062111801</v>
+        <v>0.003708854891052387</v>
       </c>
       <c r="C23">
         <v>16</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="F23">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>5136</v>
+        <v>4298</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>0.7446808510638298</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1722,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,13 +1733,13 @@
         <v>51</v>
       </c>
       <c r="K24">
-        <v>0.7407407407407407</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1748,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1756,13 +1759,13 @@
         <v>52</v>
       </c>
       <c r="K25">
-        <v>0.7375</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L25">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1774,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1782,13 +1785,13 @@
         <v>53</v>
       </c>
       <c r="K26">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1800,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1808,13 +1811,13 @@
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.6818181818181818</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1826,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1834,13 +1837,13 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>0.6785714285714286</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1852,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1860,13 +1863,13 @@
         <v>56</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1878,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1886,13 +1889,13 @@
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1904,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1912,13 +1915,13 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>0.6511627906976745</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1930,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1938,13 +1941,13 @@
         <v>59</v>
       </c>
       <c r="K32">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1956,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1964,13 +1967,13 @@
         <v>60</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1982,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1990,13 +1993,13 @@
         <v>61</v>
       </c>
       <c r="K34">
-        <v>0.62</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2008,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2016,13 +2019,13 @@
         <v>62</v>
       </c>
       <c r="K35">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L35">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2034,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2042,13 +2045,13 @@
         <v>63</v>
       </c>
       <c r="K36">
-        <v>0.5774058577405857</v>
+        <v>0.58</v>
       </c>
       <c r="L36">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2060,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2068,13 +2071,13 @@
         <v>64</v>
       </c>
       <c r="K37">
-        <v>0.5692307692307692</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2086,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>28</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2120,13 +2123,13 @@
         <v>66</v>
       </c>
       <c r="K39">
-        <v>0.5559322033898305</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L39">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2138,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>131</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2146,13 +2149,13 @@
         <v>67</v>
       </c>
       <c r="K40">
-        <v>0.5425531914893617</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L40">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M40">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2164,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2172,13 +2175,13 @@
         <v>68</v>
       </c>
       <c r="K41">
-        <v>0.5357142857142857</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2190,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2198,13 +2201,13 @@
         <v>69</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2216,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2224,13 +2227,13 @@
         <v>70</v>
       </c>
       <c r="K43">
-        <v>0.4848484848484849</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2242,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2250,13 +2253,13 @@
         <v>71</v>
       </c>
       <c r="K44">
-        <v>0.4382022471910113</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2268,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2276,13 +2279,13 @@
         <v>72</v>
       </c>
       <c r="K45">
-        <v>0.4313725490196079</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2294,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2302,13 +2305,13 @@
         <v>73</v>
       </c>
       <c r="K46">
-        <v>0.4285714285714285</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2320,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2328,13 +2331,13 @@
         <v>74</v>
       </c>
       <c r="K47">
-        <v>0.4</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2346,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2354,13 +2357,13 @@
         <v>75</v>
       </c>
       <c r="K48">
-        <v>0.282051282051282</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2372,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2380,7 +2383,7 @@
         <v>76</v>
       </c>
       <c r="K49">
-        <v>0.273972602739726</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L49">
         <v>20</v>
@@ -2398,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2406,25 +2409,25 @@
         <v>77</v>
       </c>
       <c r="K50">
-        <v>0.01751459549624687</v>
+        <v>0.21875</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1178</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2432,77 +2435,77 @@
         <v>78</v>
       </c>
       <c r="K51">
-        <v>0.005249343832020997</v>
+        <v>0.01166666666666667</v>
       </c>
       <c r="L51">
         <v>14</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N51">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>2653</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>0.003246753246753247</v>
+        <v>0.008176100628930818</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N52">
-        <v>0.47</v>
+        <v>0.76</v>
       </c>
       <c r="O52">
-        <v>0.53</v>
+        <v>0.24</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>4298</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K53">
-        <v>0.003009027081243731</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N53">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="O53">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>4970</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2510,25 +2513,25 @@
         <v>28</v>
       </c>
       <c r="K54">
-        <v>0.00252476208972616</v>
+        <v>0.003246753246753247</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N54">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="O54">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>5136</v>
+        <v>4298</v>
       </c>
     </row>
   </sheetData>
